--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628787.3780651393</v>
+        <v>642513.736202557</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573493.4371019268</v>
+      </c>
+      <c r="D2" t="n">
         <v>573493.437101927</v>
-      </c>
-      <c r="C2" t="n">
-        <v>573493.4371019269</v>
-      </c>
-      <c r="D2" t="n">
-        <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
         <v>160048.7674098091</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="F4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="G4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="H4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="I4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="J4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="K4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="L4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="M4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="N4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="O4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="P4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82090.47627638961</v>
+        <v>82090.47627638929</v>
       </c>
       <c r="C6" t="n">
-        <v>82090.4762763895</v>
+        <v>82090.47627638929</v>
       </c>
       <c r="D6" t="n">
-        <v>82090.4762763895</v>
+        <v>82090.47627638953</v>
       </c>
       <c r="E6" t="n">
-        <v>-43557.75669897901</v>
+        <v>-43557.75669897906</v>
       </c>
       <c r="F6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="G6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="H6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="I6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="J6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="K6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="L6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="M6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="N6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="O6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
       <c r="P6" t="n">
-        <v>89542.24330102099</v>
+        <v>89542.24330102101</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642513.736202557</v>
+        <v>558728.3344409324</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.4371019271</v>
       </c>
       <c r="D2" t="n">
         <v>573493.437101927</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82090.47627638929</v>
+        <v>82046.34049770828</v>
       </c>
       <c r="C6" t="n">
-        <v>82090.47627638929</v>
+        <v>82046.34049770852</v>
       </c>
       <c r="D6" t="n">
-        <v>82090.47627638953</v>
+        <v>82046.3404977084</v>
       </c>
       <c r="E6" t="n">
-        <v>-43557.75669897906</v>
+        <v>-58367.77353809297</v>
       </c>
       <c r="F6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="G6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="H6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="I6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="J6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="K6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="L6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="M6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="N6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="O6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
       <c r="P6" t="n">
-        <v>89542.24330102101</v>
+        <v>74732.22646190711</v>
       </c>
     </row>
   </sheetData>
